--- a/reasons counts.xlsx
+++ b/reasons counts.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="-4860" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="allow" sheetId="1" r:id="rId1"/>
     <sheet name="deny" sheetId="2" r:id="rId2"/>
-    <sheet name="allow heatmap" sheetId="3" r:id="rId3"/>
-    <sheet name="deny heatmap" sheetId="4" r:id="rId4"/>
+    <sheet name="deny (2)" sheetId="5" r:id="rId3"/>
+    <sheet name="allow heatmap" sheetId="3" r:id="rId4"/>
+    <sheet name="deny heatmap" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="54">
   <si>
     <t xml:space="preserve">   Count </t>
   </si>
@@ -186,6 +187,12 @@
   </si>
   <si>
     <t>The app didn't ask for it/I didn't disable it/I think thats the default setting</t>
+  </si>
+  <si>
+    <t>get total counts from the python code in reasons_counts file</t>
+  </si>
+  <si>
+    <t>divide by the number of times the question was asked for each permission</t>
   </si>
 </sst>
 </file>
@@ -551,7 +558,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -573,8 +580,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -631,8 +640,10 @@
     <xf numFmtId="0" fontId="4" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -643,6 +654,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -653,6 +665,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1487,11 +1500,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1882159968"/>
-        <c:axId val="-1921037952"/>
+        <c:axId val="-135641600"/>
+        <c:axId val="-135639312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1882159968"/>
+        <c:axId val="-135641600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1515,7 +1528,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1534,7 +1547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1921037952"/>
+        <c:crossAx val="-135639312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1542,7 +1555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1921037952"/>
+        <c:axId val="-135639312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1882159968"/>
+        <c:crossAx val="-135641600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1900,59 +1913,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>deny!$B$2:$H$2</c:f>
+              <c:f>deny!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Deny all</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Microphone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Contacts</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Phone</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Storage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>deny!$B$3:$H$3</c:f>
+              <c:f>deny!$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,59 +1972,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>deny!$B$2:$H$2</c:f>
+              <c:f>deny!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Deny all</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Microphone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Contacts</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Phone</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Storage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>deny!$B$4:$H$4</c:f>
+              <c:f>deny!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,59 +2030,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>deny!$B$2:$H$2</c:f>
+              <c:f>deny!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Deny all</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Microphone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Contacts</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Phone</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Storage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>deny!$B$5:$H$5</c:f>
+              <c:f>deny!$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,59 +2078,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>deny!$B$2:$H$2</c:f>
+              <c:f>deny!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Deny all</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Microphone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Contacts</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Phone</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Storage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>deny!$B$6:$H$6</c:f>
+              <c:f>deny!$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2259,59 +2128,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>deny!$B$2:$H$2</c:f>
+              <c:f>deny!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Deny all</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Microphone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Contacts</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Phone</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Storage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>deny!$B$7:$H$7</c:f>
+              <c:f>deny!$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2343,59 +2176,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>deny!$B$2:$H$2</c:f>
+              <c:f>deny!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Deny all</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Microphone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Contacts</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Phone</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Storage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>deny!$B$8:$H$8</c:f>
+              <c:f>deny!$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>80.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,59 +2224,23 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>deny!$B$2:$H$2</c:f>
+              <c:f>deny!$B$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Deny all</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Location</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Microphone</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Camera</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Contacts</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Phone</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Storage</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>deny!$B$9:$H$9</c:f>
+              <c:f>deny!$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,11 +2256,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1880688208"/>
-        <c:axId val="-1880235904"/>
+        <c:axId val="-135706848"/>
+        <c:axId val="-135704800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1880688208"/>
+        <c:axId val="-135706848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2303,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1880235904"/>
+        <c:crossAx val="-135704800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2550,7 +2311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1880235904"/>
+        <c:axId val="-135704800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,7 +2361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1880688208"/>
+        <c:crossAx val="-135706848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2619,11 +2380,1785 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.0136919325947236"/>
-          <c:y val="0.679056948413986"/>
+          <c:y val="0.595318567176604"/>
+          <c:w val="0.96052687593348"/>
+          <c:h val="0.379402725821955"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Top</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> r</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>easons</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for denying permissions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0577694206134681"/>
+          <c:y val="0.106175710594315"/>
+          <c:w val="0.916359932620363"/>
+          <c:h val="0.448541170725752"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>deny!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I do not use the specific feature associated with the permission                </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="FDFF70"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>deny!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Deny all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>deny!$B$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>deny!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I think the app shouldnt need this permission                                   </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>deny!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Deny all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>deny!$B$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>deny!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I expect the app will still work without this permission                        </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>deny!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Deny all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>deny!$B$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>deny!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I can always grant it afterwards if I change my mind                            </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>deny!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Deny all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>deny!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>deny!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I didnt know I did that                                                         </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>deny!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Deny all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>deny!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>deny!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I dont use the app                                                              </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>deny!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Deny all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>deny!$B$8:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>deny!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> The app didn't ask for it/I didn't disable it/I think thats the default setting </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>deny!$B$2:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Deny all</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>deny!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-135747488"/>
+        <c:axId val="-135745168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-135747488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-135745168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-135745168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-135747488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0136919325947236"/>
+          <c:y val="0.63863685484662"/>
           <c:w val="0.984596575830936"/>
           <c:h val="0.21192613133095"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Reasons for denying permissions</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'deny (2)'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I do not use the specific feature associated with the permission                </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="wdUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:srgbClr val="FDFF70"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'deny (2)'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'deny (2)'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'deny (2)'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I think the app shouldnt need this permission                                   </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'deny (2)'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'deny (2)'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'deny (2)'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I expect the app will still work without this permission                        </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'deny (2)'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'deny (2)'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'deny (2)'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I can always grant it afterwards if I change my mind                            </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'deny (2)'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'deny (2)'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'deny (2)'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I didnt know I did that                                                         </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'deny (2)'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'deny (2)'!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'deny (2)'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> I dont use the app                                                              </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'deny (2)'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'deny (2)'!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'deny (2)'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> The app didn't ask for it/I didn't disable it/I think thats the default setting </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'deny (2)'!$B$2:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Location</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Microphone</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Camera</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contacts</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Phone</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'deny (2)'!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-135853232"/>
+        <c:axId val="-135851456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-135853232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-135851456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-135851456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-135853232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2770,6 +4305,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3274,6 +4889,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3816,15 +6437,82 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>625930</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171523</xdr:rowOff>
+      <xdr:colOff>1133931</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>72572</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145144</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3365500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4145644</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>290286</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1551213</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9071</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4112,7 +6800,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4370,8 +7058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4604,18 +7292,231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="11" max="11" width="49.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>27</v>
       </c>
@@ -4640,8 +7541,32 @@
       <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -4666,8 +7591,39 @@
       <c r="H2" s="6">
         <v>64</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="56">
+        <f>(B2/L15)</f>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="M2" s="56">
+        <f>(C2/M15)</f>
+        <v>0.52112676056338025</v>
+      </c>
+      <c r="N2" s="56">
+        <f t="shared" ref="N2:R13" si="0">(D2/N15)</f>
+        <v>0.39705882352941174</v>
+      </c>
+      <c r="O2" s="56">
+        <f t="shared" si="0"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="P2" s="56">
+        <f t="shared" si="0"/>
+        <v>0.27624309392265195</v>
+      </c>
+      <c r="Q2" s="56">
+        <f t="shared" si="0"/>
+        <v>0.26623376623376621</v>
+      </c>
+      <c r="R2" s="56">
+        <f t="shared" si="0"/>
+        <v>0.30476190476190479</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -4695,8 +7651,39 @@
       <c r="I3" t="s">
         <v>40</v>
       </c>
+      <c r="K3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="56">
+        <f t="shared" ref="L3:L13" si="1">(B3/L16)</f>
+        <v>0.26373626373626374</v>
+      </c>
+      <c r="M3" s="56">
+        <f t="shared" ref="M3:M13" si="2">(C3/M16)</f>
+        <v>0.15492957746478872</v>
+      </c>
+      <c r="N3" s="56">
+        <f t="shared" si="0"/>
+        <v>0.13235294117647059</v>
+      </c>
+      <c r="O3" s="56">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="P3" s="56">
+        <f t="shared" si="0"/>
+        <v>9.9447513812154692E-2</v>
+      </c>
+      <c r="Q3" s="56">
+        <f t="shared" si="0"/>
+        <v>0.14935064935064934</v>
+      </c>
+      <c r="R3" s="56">
+        <f t="shared" si="0"/>
+        <v>0.28095238095238095</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
@@ -4721,8 +7708,39 @@
       <c r="H4" s="6">
         <v>43</v>
       </c>
+      <c r="K4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="56">
+        <f t="shared" si="1"/>
+        <v>0.35897435897435898</v>
+      </c>
+      <c r="M4" s="56">
+        <f t="shared" si="2"/>
+        <v>0.18309859154929578</v>
+      </c>
+      <c r="N4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.21323529411764705</v>
+      </c>
+      <c r="O4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.20779220779220781</v>
+      </c>
+      <c r="P4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.24309392265193369</v>
+      </c>
+      <c r="Q4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.17532467532467533</v>
+      </c>
+      <c r="R4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.20476190476190476</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>31</v>
       </c>
@@ -4747,8 +7765,39 @@
       <c r="H5" s="6">
         <v>11</v>
       </c>
+      <c r="K5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="56">
+        <f t="shared" si="1"/>
+        <v>8.7912087912087919E-2</v>
+      </c>
+      <c r="M5" s="56">
+        <f t="shared" si="2"/>
+        <v>6.5727699530516437E-2</v>
+      </c>
+      <c r="N5" s="56">
+        <f t="shared" si="0"/>
+        <v>3.6764705882352942E-2</v>
+      </c>
+      <c r="O5" s="56">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="P5" s="56">
+        <f t="shared" si="0"/>
+        <v>8.8397790055248615E-2</v>
+      </c>
+      <c r="Q5" s="56">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="R5" s="56">
+        <f t="shared" si="0"/>
+        <v>5.2380952380952382E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
@@ -4773,8 +7822,39 @@
       <c r="H6" s="6">
         <v>1</v>
       </c>
+      <c r="K6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="56">
+        <f t="shared" si="2"/>
+        <v>4.6948356807511738E-3</v>
+      </c>
+      <c r="N6" s="56">
+        <f t="shared" si="0"/>
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="O6" s="56">
+        <f t="shared" si="0"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
+      <c r="P6" s="56">
+        <f t="shared" si="0"/>
+        <v>1.1049723756906077E-2</v>
+      </c>
+      <c r="Q6" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="56">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047623E-3</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
@@ -4799,8 +7879,39 @@
       <c r="H7" s="6">
         <v>12</v>
       </c>
+      <c r="K7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="56">
+        <f t="shared" si="1"/>
+        <v>0.19780219780219779</v>
+      </c>
+      <c r="M7" s="56">
+        <f t="shared" si="2"/>
+        <v>9.3896713615023469E-2</v>
+      </c>
+      <c r="N7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.13970588235294118</v>
+      </c>
+      <c r="O7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="P7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.143646408839779</v>
+      </c>
+      <c r="Q7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.11038961038961038</v>
+      </c>
+      <c r="R7" s="56">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -4825,8 +7936,39 @@
       <c r="H8" s="6">
         <v>15</v>
       </c>
+      <c r="K8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="56">
+        <f>(B8/L21)</f>
+        <v>0.12087912087912088</v>
+      </c>
+      <c r="M8" s="56">
+        <f t="shared" si="2"/>
+        <v>2.8169014084507043E-2</v>
+      </c>
+      <c r="N8" s="56">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="O8" s="56">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="0"/>
+        <v>3.3149171270718231E-2</v>
+      </c>
+      <c r="Q8" s="56">
+        <f t="shared" si="0"/>
+        <v>6.4935064935064929E-2</v>
+      </c>
+      <c r="R8" s="56">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -4851,8 +7993,39 @@
       <c r="H9" s="6">
         <v>15</v>
       </c>
+      <c r="K9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="56">
+        <f>(B9/L22)</f>
+        <v>0.11721611721611722</v>
+      </c>
+      <c r="M9" s="56">
+        <f t="shared" si="2"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="N9" s="56">
+        <f t="shared" si="0"/>
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="O9" s="56">
+        <f t="shared" si="0"/>
+        <v>5.844155844155844E-2</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="0"/>
+        <v>0.1270718232044199</v>
+      </c>
+      <c r="Q9" s="56">
+        <f t="shared" si="0"/>
+        <v>6.4935064935064929E-2</v>
+      </c>
+      <c r="R9" s="56">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -4877,8 +8050,39 @@
       <c r="H10" s="6">
         <v>39</v>
       </c>
+      <c r="K10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="56">
+        <f>(B10/L23)</f>
+        <v>0.11721611721611722</v>
+      </c>
+      <c r="M10" s="56">
+        <f t="shared" si="2"/>
+        <v>0.15023474178403756</v>
+      </c>
+      <c r="N10" s="56">
+        <f t="shared" si="0"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="O10" s="56">
+        <f t="shared" si="0"/>
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="P10" s="56">
+        <f t="shared" si="0"/>
+        <v>0.19337016574585636</v>
+      </c>
+      <c r="Q10" s="56">
+        <f t="shared" si="0"/>
+        <v>0.2792207792207792</v>
+      </c>
+      <c r="R10" s="56">
+        <f t="shared" si="0"/>
+        <v>0.18571428571428572</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -4903,8 +8107,39 @@
       <c r="H11" s="6">
         <v>34</v>
       </c>
+      <c r="K11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="56">
+        <f>(B11/L24)</f>
+        <v>7.3260073260073263E-2</v>
+      </c>
+      <c r="M11" s="56">
+        <f t="shared" si="2"/>
+        <v>9.3896713615023469E-2</v>
+      </c>
+      <c r="N11" s="56">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="O11" s="56">
+        <f t="shared" si="0"/>
+        <v>6.4935064935064929E-2</v>
+      </c>
+      <c r="P11" s="56">
+        <f t="shared" si="0"/>
+        <v>0.13812154696132597</v>
+      </c>
+      <c r="Q11" s="56">
+        <f t="shared" si="0"/>
+        <v>7.792207792207792E-2</v>
+      </c>
+      <c r="R11" s="56">
+        <f t="shared" si="0"/>
+        <v>0.16190476190476191</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>38</v>
       </c>
@@ -4929,8 +8164,39 @@
       <c r="H12" s="6">
         <v>7</v>
       </c>
+      <c r="K12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="56">
+        <f>(B12/L25)</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="M12" s="56">
+        <f t="shared" si="2"/>
+        <v>6.5727699530516437E-2</v>
+      </c>
+      <c r="N12" s="56">
+        <f t="shared" si="0"/>
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="O12" s="56">
+        <f t="shared" si="0"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="P12" s="56">
+        <f t="shared" si="0"/>
+        <v>6.6298342541436461E-2</v>
+      </c>
+      <c r="Q12" s="56">
+        <f t="shared" si="0"/>
+        <v>3.2467532467532464E-2</v>
+      </c>
+      <c r="R12" s="56">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
@@ -4955,14 +8221,94 @@
       <c r="H13" s="6">
         <v>0</v>
       </c>
+      <c r="K13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="56">
+        <f>(B13/L26)</f>
+        <v>1.098901098901099E-2</v>
+      </c>
+      <c r="M13" s="56">
+        <f t="shared" si="2"/>
+        <v>9.3896713615023476E-3</v>
+      </c>
+      <c r="N13" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="56">
+        <f t="shared" si="0"/>
+        <v>1.948051948051948E-2</v>
+      </c>
+      <c r="P13" s="56">
+        <f t="shared" si="0"/>
+        <v>1.6574585635359115E-2</v>
+      </c>
+      <c r="Q13" s="56">
+        <f t="shared" si="0"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
+      <c r="R13" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
+      <c r="L14" s="57">
+        <f>SUM(L2:L13)</f>
+        <v>1.7802197802197801</v>
+      </c>
+      <c r="M14" s="57">
+        <f t="shared" ref="M14:R14" si="3">SUM(M2:M13)</f>
+        <v>1.44131455399061</v>
+      </c>
+      <c r="N14" s="57">
+        <f t="shared" si="3"/>
+        <v>1.3161764705882355</v>
+      </c>
+      <c r="O14" s="57">
+        <f t="shared" si="3"/>
+        <v>1.3506493506493504</v>
+      </c>
+      <c r="P14" s="57">
+        <f t="shared" si="3"/>
+        <v>1.4364640883977902</v>
+      </c>
+      <c r="Q14" s="57">
+        <f t="shared" si="3"/>
+        <v>1.2922077922077921</v>
+      </c>
+      <c r="R14" s="57">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714288</v>
+      </c>
     </row>
-    <row r="15" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
+      <c r="L15" s="6">
+        <v>273</v>
+      </c>
+      <c r="M15" s="6">
+        <v>213</v>
+      </c>
+      <c r="N15" s="6">
+        <v>136</v>
+      </c>
+      <c r="O15" s="6">
+        <v>154</v>
+      </c>
+      <c r="P15" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>154</v>
+      </c>
+      <c r="R15" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -4987,8 +8333,29 @@
       <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="L16" s="6">
+        <v>273</v>
+      </c>
+      <c r="M16" s="6">
+        <v>213</v>
+      </c>
+      <c r="N16" s="6">
+        <v>136</v>
+      </c>
+      <c r="O16" s="6">
+        <v>154</v>
+      </c>
+      <c r="P16" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>154</v>
+      </c>
+      <c r="R16" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -5013,8 +8380,29 @@
       <c r="H17" s="7">
         <v>64</v>
       </c>
+      <c r="L17" s="6">
+        <v>273</v>
+      </c>
+      <c r="M17" s="6">
+        <v>213</v>
+      </c>
+      <c r="N17" s="6">
+        <v>136</v>
+      </c>
+      <c r="O17" s="6">
+        <v>154</v>
+      </c>
+      <c r="P17" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>154</v>
+      </c>
+      <c r="R17" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
@@ -5039,8 +8427,29 @@
       <c r="H18" s="14">
         <v>59</v>
       </c>
+      <c r="L18" s="6">
+        <v>273</v>
+      </c>
+      <c r="M18" s="6">
+        <v>213</v>
+      </c>
+      <c r="N18" s="6">
+        <v>136</v>
+      </c>
+      <c r="O18" s="6">
+        <v>154</v>
+      </c>
+      <c r="P18" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>154</v>
+      </c>
+      <c r="R18" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -5065,8 +8474,29 @@
       <c r="H19" s="20">
         <v>43</v>
       </c>
+      <c r="L19" s="6">
+        <v>273</v>
+      </c>
+      <c r="M19" s="6">
+        <v>213</v>
+      </c>
+      <c r="N19" s="6">
+        <v>136</v>
+      </c>
+      <c r="O19" s="6">
+        <v>154</v>
+      </c>
+      <c r="P19" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>154</v>
+      </c>
+      <c r="R19" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -5091,8 +8521,29 @@
       <c r="H20" s="26">
         <v>11</v>
       </c>
+      <c r="L20" s="6">
+        <v>273</v>
+      </c>
+      <c r="M20" s="6">
+        <v>213</v>
+      </c>
+      <c r="N20" s="6">
+        <v>136</v>
+      </c>
+      <c r="O20" s="6">
+        <v>154</v>
+      </c>
+      <c r="P20" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>154</v>
+      </c>
+      <c r="R20" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -5120,8 +8571,29 @@
       <c r="I21" t="s">
         <v>41</v>
       </c>
+      <c r="L21" s="6">
+        <v>273</v>
+      </c>
+      <c r="M21" s="6">
+        <v>213</v>
+      </c>
+      <c r="N21" s="6">
+        <v>136</v>
+      </c>
+      <c r="O21" s="6">
+        <v>154</v>
+      </c>
+      <c r="P21" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>154</v>
+      </c>
+      <c r="R21" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -5146,8 +8618,29 @@
       <c r="H22" s="34">
         <v>12</v>
       </c>
+      <c r="L22" s="6">
+        <v>273</v>
+      </c>
+      <c r="M22" s="6">
+        <v>213</v>
+      </c>
+      <c r="N22" s="6">
+        <v>136</v>
+      </c>
+      <c r="O22" s="6">
+        <v>154</v>
+      </c>
+      <c r="P22" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>154</v>
+      </c>
+      <c r="R22" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -5172,8 +8665,29 @@
       <c r="H23" s="38">
         <v>15</v>
       </c>
+      <c r="L23" s="6">
+        <v>273</v>
+      </c>
+      <c r="M23" s="6">
+        <v>213</v>
+      </c>
+      <c r="N23" s="6">
+        <v>136</v>
+      </c>
+      <c r="O23" s="6">
+        <v>154</v>
+      </c>
+      <c r="P23" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>154</v>
+      </c>
+      <c r="R23" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -5198,8 +8712,29 @@
       <c r="H24" s="38">
         <v>15</v>
       </c>
+      <c r="L24" s="6">
+        <v>273</v>
+      </c>
+      <c r="M24" s="6">
+        <v>213</v>
+      </c>
+      <c r="N24" s="6">
+        <v>136</v>
+      </c>
+      <c r="O24" s="6">
+        <v>154</v>
+      </c>
+      <c r="P24" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>154</v>
+      </c>
+      <c r="R24" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -5224,8 +8759,29 @@
       <c r="H25" s="47">
         <v>39</v>
       </c>
+      <c r="L25" s="6">
+        <v>273</v>
+      </c>
+      <c r="M25" s="6">
+        <v>213</v>
+      </c>
+      <c r="N25" s="6">
+        <v>136</v>
+      </c>
+      <c r="O25" s="6">
+        <v>154</v>
+      </c>
+      <c r="P25" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>154</v>
+      </c>
+      <c r="R25" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -5250,8 +8806,29 @@
       <c r="H26" s="51">
         <v>34</v>
       </c>
+      <c r="L26" s="6">
+        <v>273</v>
+      </c>
+      <c r="M26" s="6">
+        <v>213</v>
+      </c>
+      <c r="N26" s="6">
+        <v>136</v>
+      </c>
+      <c r="O26" s="6">
+        <v>154</v>
+      </c>
+      <c r="P26" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>154</v>
+      </c>
+      <c r="R26" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -5276,8 +8853,29 @@
       <c r="H27" s="41">
         <v>7</v>
       </c>
+      <c r="L27" s="6">
+        <v>273</v>
+      </c>
+      <c r="M27" s="6">
+        <v>213</v>
+      </c>
+      <c r="N27" s="6">
+        <v>136</v>
+      </c>
+      <c r="O27" s="6">
+        <v>154</v>
+      </c>
+      <c r="P27" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>154</v>
+      </c>
+      <c r="R27" s="6">
+        <v>210</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -5301,10 +8899,234 @@
       </c>
       <c r="H28" s="27">
         <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>273</v>
+      </c>
+      <c r="M28" s="6">
+        <v>213</v>
+      </c>
+      <c r="N28" s="6">
+        <v>136</v>
+      </c>
+      <c r="O28" s="6">
+        <v>154</v>
+      </c>
+      <c r="P28" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>154</v>
+      </c>
+      <c r="R28" s="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L29" s="6">
+        <v>273</v>
+      </c>
+      <c r="M29" s="6">
+        <v>213</v>
+      </c>
+      <c r="N29" s="6">
+        <v>136</v>
+      </c>
+      <c r="O29" s="6">
+        <v>154</v>
+      </c>
+      <c r="P29" s="6">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>154</v>
+      </c>
+      <c r="R29" s="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B13">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:H28">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:R13 L15:L29">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N29">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:O29">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q15:Q29">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R15:R29">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:R13">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2:L13">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M13">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5314,8 +9136,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C13">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="N2:N13">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5324,17 +9146,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E13">
+  <conditionalFormatting sqref="P2:P13">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5344,7 +9156,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13">
+  <conditionalFormatting sqref="Q2:Q13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5354,7 +9166,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="R2:R13">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5364,18 +9176,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
+  <conditionalFormatting sqref="O2:O13">
     <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:H28">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5389,17 +9191,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="13" max="13" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -5424,8 +9230,32 @@
       <c r="H1" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>43</v>
       </c>
@@ -5450,8 +9280,39 @@
       <c r="H2" s="6">
         <v>1</v>
       </c>
+      <c r="M2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="56">
+        <f>(B2/N15)</f>
+        <v>0.10238907849829351</v>
+      </c>
+      <c r="O2" s="56">
+        <f t="shared" ref="O2:T14" si="0">(C2/O15)</f>
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="P2" s="56">
+        <f>(D2/P15)</f>
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="Q2" s="56">
+        <f t="shared" si="0"/>
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="R2" s="56">
+        <f t="shared" si="0"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S2" s="56">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="T2" s="56">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
@@ -5476,8 +9337,39 @@
       <c r="H3" s="6">
         <v>6</v>
       </c>
+      <c r="M3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="56">
+        <f t="shared" ref="N3:N14" si="1">(B3/N16)</f>
+        <v>0.16040955631399317</v>
+      </c>
+      <c r="O3" s="56">
+        <f t="shared" si="0"/>
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="P3" s="56">
+        <f t="shared" ref="P3:P14" si="2">(D3/P16)</f>
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="Q3" s="56">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="R3" s="56">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="56">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="T3" s="56">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -5502,8 +9394,39 @@
       <c r="H4" s="6">
         <v>3</v>
       </c>
+      <c r="M4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="56">
+        <f t="shared" si="1"/>
+        <v>0.13310580204778158</v>
+      </c>
+      <c r="O4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.23404255319148937</v>
+      </c>
+      <c r="P4" s="56">
+        <f t="shared" si="2"/>
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="Q4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="R4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="S4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="T4" s="56">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
@@ -5528,8 +9451,39 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
+      <c r="M5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="56">
+        <f t="shared" si="1"/>
+        <v>6.8259385665529013E-2</v>
+      </c>
+      <c r="O5" s="56">
+        <f t="shared" si="0"/>
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="P5" s="56">
+        <f t="shared" si="2"/>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="Q5" s="56">
+        <f t="shared" si="0"/>
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="R5" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="56">
+        <f t="shared" si="0"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="T5" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
@@ -5557,8 +9511,42 @@
       <c r="I6" t="s">
         <v>40</v>
       </c>
+      <c r="M6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="56">
+        <f>(B6/N19)</f>
+        <v>6.1433447098976107E-2</v>
+      </c>
+      <c r="O6" s="56">
+        <f t="shared" si="0"/>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="P6" s="56">
+        <f t="shared" si="2"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="Q6" s="56">
+        <f t="shared" si="0"/>
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="R6" s="56">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="S6" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="56">
+        <f t="shared" si="0"/>
+        <v>0.1875</v>
+      </c>
+      <c r="U6" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
@@ -5583,8 +9571,39 @@
       <c r="H7" s="6">
         <v>2</v>
       </c>
+      <c r="M7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="56">
+        <f t="shared" si="1"/>
+        <v>0.15699658703071673</v>
+      </c>
+      <c r="O7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="P7" s="56">
+        <f t="shared" si="2"/>
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="Q7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="R7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="S7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="T7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>34</v>
       </c>
@@ -5609,8 +9628,39 @@
       <c r="H8" s="6">
         <v>0</v>
       </c>
+      <c r="M8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="56">
+        <f t="shared" si="1"/>
+        <v>1.3651877133105802E-2</v>
+      </c>
+      <c r="O8" s="56">
+        <f t="shared" si="0"/>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="P8" s="56">
+        <f t="shared" si="2"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="Q8" s="56">
+        <f t="shared" si="0"/>
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="R8" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="56">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T8" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -5635,8 +9685,39 @@
       <c r="H9" s="6">
         <v>1</v>
       </c>
+      <c r="M9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="56">
+        <f t="shared" si="1"/>
+        <v>3.4129692832764506E-2</v>
+      </c>
+      <c r="O9" s="56">
+        <f t="shared" si="0"/>
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="P9" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="56">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="S9" s="56">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="T9" s="56">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>36</v>
       </c>
@@ -5661,8 +9742,39 @@
       <c r="H10" s="6">
         <v>0</v>
       </c>
+      <c r="M10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="56">
+        <f t="shared" si="1"/>
+        <v>0.12627986348122866</v>
+      </c>
+      <c r="O10" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="56">
+        <f t="shared" si="0"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="R10" s="56">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S10" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -5687,8 +9799,39 @@
       <c r="H11" s="6">
         <v>2</v>
       </c>
+      <c r="M11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="56">
+        <f t="shared" si="1"/>
+        <v>7.5085324232081918E-2</v>
+      </c>
+      <c r="O11" s="56">
+        <f t="shared" si="0"/>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="P11" s="56">
+        <f t="shared" si="2"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="Q11" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="56">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="S11" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="56">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>50</v>
       </c>
@@ -5713,8 +9856,39 @@
       <c r="H12" s="6">
         <v>1</v>
       </c>
+      <c r="M12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="56">
+        <f t="shared" si="1"/>
+        <v>0.27303754266211605</v>
+      </c>
+      <c r="O12" s="56">
+        <f t="shared" si="0"/>
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="P12" s="56">
+        <f t="shared" si="2"/>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="Q12" s="56">
+        <f t="shared" si="0"/>
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="R12" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="56">
+        <f t="shared" si="0"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="T12" s="56">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>51</v>
       </c>
@@ -5739,8 +9913,39 @@
       <c r="H13" s="6">
         <v>2</v>
       </c>
+      <c r="M13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="56">
+        <f t="shared" si="1"/>
+        <v>0.15699658703071673</v>
+      </c>
+      <c r="O13" s="56">
+        <f t="shared" si="0"/>
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="P13" s="56">
+        <f t="shared" si="2"/>
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="Q13" s="56">
+        <f t="shared" si="0"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="R13" s="56">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="S13" s="56">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="T13" s="56">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
@@ -5765,8 +9970,928 @@
       <c r="H14" s="6">
         <v>0</v>
       </c>
+      <c r="M14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="56">
+        <f t="shared" si="1"/>
+        <v>6.8259385665529011E-3</v>
+      </c>
+      <c r="O14" s="56">
+        <f t="shared" si="0"/>
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="P14" s="56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N15" s="6">
+        <v>293</v>
+      </c>
+      <c r="O15" s="6">
+        <v>47</v>
+      </c>
+      <c r="P15" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>33</v>
+      </c>
+      <c r="R15" s="6">
+        <v>40</v>
+      </c>
+      <c r="S15" s="6">
+        <v>35</v>
+      </c>
+      <c r="T15" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N16" s="6">
+        <v>293</v>
+      </c>
+      <c r="O16" s="6">
+        <v>47</v>
+      </c>
+      <c r="P16" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>33</v>
+      </c>
+      <c r="R16" s="6">
+        <v>40</v>
+      </c>
+      <c r="S16" s="6">
+        <v>35</v>
+      </c>
+      <c r="T16" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N17" s="6">
+        <v>293</v>
+      </c>
+      <c r="O17" s="6">
+        <v>47</v>
+      </c>
+      <c r="P17" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>33</v>
+      </c>
+      <c r="R17" s="6">
+        <v>40</v>
+      </c>
+      <c r="S17" s="6">
+        <v>35</v>
+      </c>
+      <c r="T17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N18" s="6">
+        <v>293</v>
+      </c>
+      <c r="O18" s="6">
+        <v>47</v>
+      </c>
+      <c r="P18" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>33</v>
+      </c>
+      <c r="R18" s="6">
+        <v>40</v>
+      </c>
+      <c r="S18" s="6">
+        <v>35</v>
+      </c>
+      <c r="T18" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N19" s="6">
+        <v>293</v>
+      </c>
+      <c r="O19" s="6">
+        <v>47</v>
+      </c>
+      <c r="P19" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>33</v>
+      </c>
+      <c r="R19" s="6">
+        <v>40</v>
+      </c>
+      <c r="S19" s="6">
+        <v>35</v>
+      </c>
+      <c r="T19" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N20" s="6">
+        <v>293</v>
+      </c>
+      <c r="O20" s="6">
+        <v>47</v>
+      </c>
+      <c r="P20" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>33</v>
+      </c>
+      <c r="R20" s="6">
+        <v>40</v>
+      </c>
+      <c r="S20" s="6">
+        <v>35</v>
+      </c>
+      <c r="T20" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N21" s="6">
+        <v>293</v>
+      </c>
+      <c r="O21" s="6">
+        <v>47</v>
+      </c>
+      <c r="P21" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>33</v>
+      </c>
+      <c r="R21" s="6">
+        <v>40</v>
+      </c>
+      <c r="S21" s="6">
+        <v>35</v>
+      </c>
+      <c r="T21" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N22" s="6">
+        <v>293</v>
+      </c>
+      <c r="O22" s="6">
+        <v>47</v>
+      </c>
+      <c r="P22" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>33</v>
+      </c>
+      <c r="R22" s="6">
+        <v>40</v>
+      </c>
+      <c r="S22" s="6">
+        <v>35</v>
+      </c>
+      <c r="T22" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="N23" s="6">
+        <v>293</v>
+      </c>
+      <c r="O23" s="6">
+        <v>47</v>
+      </c>
+      <c r="P23" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>33</v>
+      </c>
+      <c r="R23" s="6">
+        <v>40</v>
+      </c>
+      <c r="S23" s="6">
+        <v>35</v>
+      </c>
+      <c r="T23" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="6">
+        <v>293</v>
+      </c>
+      <c r="O24" s="6">
+        <v>47</v>
+      </c>
+      <c r="P24" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>33</v>
+      </c>
+      <c r="R24" s="6">
+        <v>40</v>
+      </c>
+      <c r="S24" s="6">
+        <v>35</v>
+      </c>
+      <c r="T24" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>0.10238907849829351</v>
+      </c>
+      <c r="C25">
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="D25">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="E25">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="F25">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.2</v>
+      </c>
+      <c r="H25">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N25" s="6">
+        <v>293</v>
+      </c>
+      <c r="O25" s="6">
+        <v>47</v>
+      </c>
+      <c r="P25" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>33</v>
+      </c>
+      <c r="R25" s="6">
+        <v>40</v>
+      </c>
+      <c r="S25" s="6">
+        <v>35</v>
+      </c>
+      <c r="T25" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>0.16040955631399317</v>
+      </c>
+      <c r="C26">
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="D26">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="E26">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H26">
+        <v>0.375</v>
+      </c>
+      <c r="N26" s="6">
+        <v>293</v>
+      </c>
+      <c r="O26" s="6">
+        <v>47</v>
+      </c>
+      <c r="P26" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>33</v>
+      </c>
+      <c r="R26" s="6">
+        <v>40</v>
+      </c>
+      <c r="S26" s="6">
+        <v>35</v>
+      </c>
+      <c r="T26" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>0.13310580204778158</v>
+      </c>
+      <c r="C27">
+        <v>0.23404255319148937</v>
+      </c>
+      <c r="D27">
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="E27">
+        <v>0.30303030303030304</v>
+      </c>
+      <c r="F27">
+        <v>0.375</v>
+      </c>
+      <c r="G27">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="H27">
+        <v>0.1875</v>
+      </c>
+      <c r="N27" s="6">
+        <v>293</v>
+      </c>
+      <c r="O27" s="6">
+        <v>47</v>
+      </c>
+      <c r="P27" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>33</v>
+      </c>
+      <c r="R27" s="6">
+        <v>40</v>
+      </c>
+      <c r="S27" s="6">
+        <v>35</v>
+      </c>
+      <c r="T27" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>6.8259385665529013E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="D28">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="E28">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>293</v>
+      </c>
+      <c r="O28" s="6">
+        <v>47</v>
+      </c>
+      <c r="P28" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>33</v>
+      </c>
+      <c r="R28" s="6">
+        <v>40</v>
+      </c>
+      <c r="S28" s="6">
+        <v>35</v>
+      </c>
+      <c r="T28" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>6.1433447098976107E-2</v>
+      </c>
+      <c r="C29">
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="D29">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="F29">
+        <v>0.125</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0.1875</v>
+      </c>
+      <c r="N29" s="6">
+        <v>293</v>
+      </c>
+      <c r="O29" s="6">
+        <v>47</v>
+      </c>
+      <c r="P29" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>33</v>
+      </c>
+      <c r="R29" s="6">
+        <v>40</v>
+      </c>
+      <c r="S29" s="6">
+        <v>35</v>
+      </c>
+      <c r="T29" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>0.15699658703071673</v>
+      </c>
+      <c r="C30">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="D30">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="E30">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="F30">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="H30">
+        <v>0.125</v>
+      </c>
+      <c r="N30" s="6">
+        <v>293</v>
+      </c>
+      <c r="O30" s="6">
+        <v>47</v>
+      </c>
+      <c r="P30" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>33</v>
+      </c>
+      <c r="R30" s="6">
+        <v>40</v>
+      </c>
+      <c r="S30" s="6">
+        <v>35</v>
+      </c>
+      <c r="T30" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>1.3651877133105802E-2</v>
+      </c>
+      <c r="C31">
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="E31">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>293</v>
+      </c>
+      <c r="O31" s="6">
+        <v>47</v>
+      </c>
+      <c r="P31" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>33</v>
+      </c>
+      <c r="R31" s="6">
+        <v>40</v>
+      </c>
+      <c r="S31" s="6">
+        <v>35</v>
+      </c>
+      <c r="T31" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>3.4129692832764506E-2</v>
+      </c>
+      <c r="C32">
+        <v>6.3829787234042548E-2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G32">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="H32">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>0.12627986348122866</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="F33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>7.5085324232081918E-2</v>
+      </c>
+      <c r="C34">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="D34">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.05</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>0.27303754266211605</v>
+      </c>
+      <c r="C35">
+        <v>0.10638297872340426</v>
+      </c>
+      <c r="D35">
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="H35">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>0.15699658703071673</v>
+      </c>
+      <c r="C36">
+        <v>4.2553191489361701E-2</v>
+      </c>
+      <c r="D36">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="E36">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.05</v>
+      </c>
+      <c r="G36">
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>6.8259385665529011E-3</v>
+      </c>
+      <c r="C37">
+        <v>2.1276595744680851E-2</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B14 N15:N31">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C14 O15:O31">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D14 P15:P31">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E14 Q15:Q31">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F14 R15:R31">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G14 S15:S31">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H14 T15:T31">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:T14">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N14">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O14">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P14">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q14">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R14">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S14">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:B14">
     <cfRule type="colorScale" priority="7">
       <colorScale>
